--- a/biology/Botanique/Bois_de_rose_du_Siam/Bois_de_rose_du_Siam.xlsx
+++ b/biology/Botanique/Bois_de_rose_du_Siam/Bois_de_rose_du_Siam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois de rose du Siam ou palissandre du Siam[1] (Dalbergia cochinchinensis) (thaï : พะยูง: Phayung ; vietnamien : Trắc ou Cẩm lai nam bộ; khmer : ក្រញូង, Kranhung ; lao : ກະຍູງ, Kayung ; chinois : 酸枝木 Suān zhī mù ) est un bois de rose de la famille des Fabaceae. Dans sa liste rouge, l'UICN le classe comme vulnérable[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de rose du Siam ou palissandre du Siam (Dalbergia cochinchinensis) (thaï : พะยูง: Phayung ; vietnamien : Trắc ou Cẩm lai nam bộ; khmer : ក្រញូង, Kranhung ; lao : ກະຍູງ, Kayung ; chinois : 酸枝木 Suān zhī mù ) est un bois de rose de la famille des Fabaceae. Dans sa liste rouge, l'UICN le classe comme vulnérable.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Amerimnon cambodianum, Pierre
 Amerimnon cochinchinense, Pierre
@@ -546,9 +560,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Asie du Sud-Est[3] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Asie du Sud-Est : 
 Cambodge
 Laos
 Thaïlande : parc national Khao Phra Wihan, parc national de Ta Phraya
@@ -580,11 +596,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois de rose du Siam est plus dense que l'eau, à grain fin et riche en huiles et en résines. Ces propriétés lui confèrent une stabilité dimensionnelle, une résistance à l'usure, à la pourriture et aux insectes et, lorsqu'il est neuf, un parfum intense. La densité et la robustesse du bois permettent également de construire des meubles sans utiliser de colle ni de clous, mais plutôt à l'aide des seuls assemblage et du chevillage.
-En raison de sa tolérance à la sécheresse et de sa capacité à fixer l'azote, il présente un potentiel pour la restauration des forêts dégradées et des sites déboisés[4]. Par conséquent, sa plantation peut servir à la fois les objectifs de conservation et de restauration des paysages forestiers[5],[6].
-L'université d'Oxford a publié les transcriptomes de Dalbergia cochinchinensis et de cinq autres espèces de Dalbergia[7]. Il a été constaté que Dalbergia cochinchinensis avait moins de gènes R que le Dalbergia oliveri.
+En raison de sa tolérance à la sécheresse et de sa capacité à fixer l'azote, il présente un potentiel pour la restauration des forêts dégradées et des sites déboisés. Par conséquent, sa plantation peut servir à la fois les objectifs de conservation et de restauration des paysages forestiers,.
+L'université d'Oxford a publié les transcriptomes de Dalbergia cochinchinensis et de cinq autres espèces de Dalbergia. Il a été constaté que Dalbergia cochinchinensis avait moins de gènes R que le Dalbergia oliveri.
 </t>
         </is>
       </c>
@@ -613,11 +631,13 @@
           <t>Demande chinoise</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La demande de meubles en bois de rose du Siam, principalement en Chine (son prix peut atteindre 100 000$ le mètre-cube[8]) où il est connu sous le nom de hongmu[9],[10], a entraîné un accroissement de l'abattage et du trafic illégal, menaçant l'espèce d'extinction et entraînant une guerre avec les braconniers, souvent payés avec de la yaabaa, une méthamphétamine[11]. En 2015, sept gardes forestiers thaïlandais ont été tués en tentant de mettre fin à l'exploitation illégale du bois de rose du Siam[12], et 40 le furent entre 2009 et 2013[13]. La pandémie de Covid-19 a entraîné un renforcement des contrôles à la frontière entre le Cambodge et la Thaïlande, ce qui aurait entraîné une diminution du braconnage[14].
-Le braconnage de bois rose du Siam entraîne aussi une diminution de la population des gibbons à bonnet en Thaïlande[15]
-De 2005 à 2015, 798 tonnes de palissandre du Siam furent saisis[16]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La demande de meubles en bois de rose du Siam, principalement en Chine (son prix peut atteindre 100 000$ le mètre-cube) où il est connu sous le nom de hongmu a entraîné un accroissement de l'abattage et du trafic illégal, menaçant l'espèce d'extinction et entraînant une guerre avec les braconniers, souvent payés avec de la yaabaa, une méthamphétamine. En 2015, sept gardes forestiers thaïlandais ont été tués en tentant de mettre fin à l'exploitation illégale du bois de rose du Siam, et 40 le furent entre 2009 et 2013. La pandémie de Covid-19 a entraîné un renforcement des contrôles à la frontière entre le Cambodge et la Thaïlande, ce qui aurait entraîné une diminution du braconnage.
+Le braconnage de bois rose du Siam entraîne aussi une diminution de la population des gibbons à bonnet en Thaïlande
+De 2005 à 2015, 798 tonnes de palissandre du Siam furent saisis
 </t>
         </is>
       </c>
